--- a/数据整理/stocks/A股/上证主板/603639-海利尔.xlsx
+++ b/数据整理/stocks/A股/上证主板/603639-海利尔.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,28 +22,43 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>006551</t>
+  </si>
+  <si>
+    <t>161611</t>
+  </si>
+  <si>
+    <t>001487</t>
+  </si>
+  <si>
     <t>001877</t>
   </si>
   <si>
     <t>006230</t>
   </si>
   <si>
-    <t>006551</t>
-  </si>
-  <si>
-    <t>001487</t>
-  </si>
-  <si>
-    <t>161611</t>
+    <t>中庚价值领航混合</t>
+  </si>
+  <si>
+    <t>融通内需驱动混合</t>
+  </si>
+  <si>
+    <t>宝盈优势产业灵活配置混合</t>
   </si>
   <si>
     <t>宝盈国家安全战略沪港深股票</t>
@@ -52,13 +67,25 @@
     <t>鹏华研究驱动混合</t>
   </si>
   <si>
-    <t>中庚价值领航混合</t>
-  </si>
-  <si>
-    <t>宝盈优势产业灵活配置混合</t>
-  </si>
-  <si>
-    <t>融通内需驱动混合</t>
+    <t>24.79</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>1.49</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>92.40</t>
+  </si>
+  <si>
+    <t>73.22</t>
   </si>
   <si>
     <t>89.45</t>
@@ -67,10 +94,13 @@
     <t>87.46</t>
   </si>
   <si>
-    <t>92.40</t>
-  </si>
-  <si>
-    <t>73.22</t>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>3.99</t>
+  </si>
+  <si>
+    <t>5.21</t>
   </si>
   <si>
     <t>5.29</t>
@@ -79,13 +109,19 @@
     <t>2.06</t>
   </si>
   <si>
-    <t>3.33</t>
-  </si>
-  <si>
-    <t>5.21</t>
-  </si>
-  <si>
-    <t>3.99</t>
+    <t>0.8255</t>
+  </si>
+  <si>
+    <t>0.0870</t>
+  </si>
+  <si>
+    <t>0.0776</t>
+  </si>
+  <si>
+    <t>0.0159</t>
+  </si>
+  <si>
+    <t>0.0089</t>
   </si>
 </sst>
 </file>
@@ -443,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,105 +501,141 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603639-海利尔.xlsx
+++ b/数据整理/stocks/A股/上证主板/603639-海利尔.xlsx
@@ -1,159 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>006551</t>
-  </si>
-  <si>
-    <t>161611</t>
-  </si>
-  <si>
-    <t>001487</t>
-  </si>
-  <si>
-    <t>001877</t>
-  </si>
-  <si>
-    <t>006230</t>
-  </si>
-  <si>
-    <t>中庚价值领航混合</t>
-  </si>
-  <si>
-    <t>融通内需驱动混合</t>
-  </si>
-  <si>
-    <t>宝盈优势产业灵活配置混合</t>
-  </si>
-  <si>
-    <t>宝盈国家安全战略沪港深股票</t>
-  </si>
-  <si>
-    <t>鹏华研究驱动混合</t>
-  </si>
-  <si>
-    <t>24.79</t>
-  </si>
-  <si>
-    <t>2.18</t>
-  </si>
-  <si>
-    <t>1.49</t>
-  </si>
-  <si>
-    <t>0.30</t>
-  </si>
-  <si>
-    <t>0.43</t>
-  </si>
-  <si>
-    <t>92.40</t>
-  </si>
-  <si>
-    <t>73.22</t>
-  </si>
-  <si>
-    <t>89.45</t>
-  </si>
-  <si>
-    <t>87.46</t>
-  </si>
-  <si>
-    <t>3.33</t>
-  </si>
-  <si>
-    <t>3.99</t>
-  </si>
-  <si>
-    <t>5.21</t>
-  </si>
-  <si>
-    <t>5.29</t>
-  </si>
-  <si>
-    <t>2.06</t>
-  </si>
-  <si>
-    <t>0.8255</t>
-  </si>
-  <si>
-    <t>0.0870</t>
-  </si>
-  <si>
-    <t>0.0776</t>
-  </si>
-  <si>
-    <t>0.0159</t>
-  </si>
-  <si>
-    <t>0.0089</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -176,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -478,167 +446,341 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8255</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603639-海利尔.xlsx
+++ b/数据整理/stocks/A股/上证主板/603639-海利尔.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3890</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2661</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1748</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603639-海利尔.xlsx
+++ b/数据整理/stocks/A股/上证主板/603639-海利尔.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -992,4 +993,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603639-海利尔.xlsx
+++ b/数据整理/stocks/A股/上证主板/603639-海利尔.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1001,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,17 +1013,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1032,14 +1053,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.87</v>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6811</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1048,14 +1091,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.05</v>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3799</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1064,13 +1129,629 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5602</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2523</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2011</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002421</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华增强债券A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002422</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新华增强债券C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603639-海利尔.xlsx
+++ b/数据整理/stocks/A股/上证主板/603639-海利尔.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1666,7 +1667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,17 +1678,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1697,14 +1718,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.66</v>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3920</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1713,14 +1756,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4675</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.87</v>
       </c>
     </row>
     <row r="4">
@@ -1729,14 +1794,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.05</v>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1745,13 +1832,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1558</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603639-海利尔.xlsx
+++ b/数据整理/stocks/A股/上证主板/603639-海利尔.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>2.22</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>4.66</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>0.87</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -566,6 +583,516 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8299</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014038</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银启诚混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6751</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2871</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2851</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013430</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2749</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014039</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银启诚混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2075</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012771</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011404</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通鑫新成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012815</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011403</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通鑫新成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003855</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>45.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003854</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>45.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -925,7 +1452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1589,7 +2116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1797,7 +2324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1891,7 +2418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603639-海利尔.xlsx
+++ b/数据整理/stocks/A股/上证主板/603639-海利尔.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>3.77</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>2.22</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>4.66</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>0.87</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -583,6 +600,742 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0211</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014038</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银启诚混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6932</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013430</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4099</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3441</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3405</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈国家安全沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2599</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013895</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2577</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014039</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银启诚混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2036</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012771</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013896</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012815</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013613</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈国家安全沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003855</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>45.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014929</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>017194</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003854</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>45.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1092,7 +1845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1452,7 +2205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2116,7 +2869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2324,7 +3077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2418,7 +3171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
